--- a/receipt-buddy.xlsx
+++ b/receipt-buddy.xlsx
@@ -1,80 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ciprianbangu/receipt-buddy/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C8AC9B-B93C-B347-824F-46E563A167FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="680" windowWidth="30240" windowHeight="18960" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Itemized" sheetId="1" r:id="rId1"/>
+    <sheet name="Itemized" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Receipt Buddy</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Price/Unit</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="167" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Aptos Narrow"/>
+      <b val="1"/>
+      <color theme="0" tint="-0.0499893185216834"/>
       <sz val="12"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -86,7 +58,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -203,42 +175,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -269,16 +256,16 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="12"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
@@ -354,16 +341,16 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <name val="Aptos Narrow"/>
+        <b val="1"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="0" tint="-0.0499893185216834"/>
+        <extend val="0"/>
+        <sz val="12"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <name val="Aptos Narrow"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -386,12 +373,12 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.24994659260841701"/>
+          <bgColor theme="3" tint="0.249946592608417"/>
         </patternFill>
       </fill>
       <border>
@@ -439,37 +426,97 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="ReceiptTable" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="ReceiptTable" pivot="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="10"/>
       <tableStyleElement type="headerRow" dxfId="9"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ReceiptTable" displayName="ReceiptTable" ref="B4:F5" insertRow="1" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="B4:F5" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ReceiptTable" displayName="ReceiptTable" ref="B4:F362" headerRowCount="1" insertRow="1" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="B4:F5">
+    <filterColumn colId="0" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="1" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="2" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="3" hiddenButton="1" showButton="1"/>
+    <filterColumn colId="4" hiddenButton="1" showButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Item" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Quantity" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Price" dataDxfId="2" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Price/Unit" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Date" dataDxfId="0"/>
+    <tableColumn id="1" name="Item" dataDxfId="4"/>
+    <tableColumn id="2" name="Quantity" dataDxfId="3"/>
+    <tableColumn id="3" name="Price" dataDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="4" name="Price/Unit" dataDxfId="1"/>
+    <tableColumn id="5" name="Date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="ReceiptTable" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -791,65 +838,6868 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B2:F362"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col width="23.1640625" customWidth="1" min="1" max="1"/>
+    <col width="35.6640625" customWidth="1" min="2" max="2"/>
+    <col width="12.6640625" customWidth="1" min="3" max="3"/>
+    <col width="11.33203125" customWidth="1" min="4" max="4"/>
+    <col width="12.1640625" customWidth="1" min="5" max="5"/>
+    <col width="13.33203125" customWidth="1" min="6" max="6"/>
+    <col width="12.5" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" spans="2:6" ht="4" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="2">
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>Receipt Buddy</t>
+        </is>
+      </c>
+      <c r="C2" s="12" t="n"/>
+      <c r="D2" s="12" t="n"/>
+      <c r="E2" s="12" t="n"/>
+      <c r="F2" s="13" t="n"/>
+    </row>
+    <row r="3" ht="4" customHeight="1"/>
+    <row r="4">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Price/Unit</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>BROCOLIS U SACHET 900G</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="F5" s="14" t="n">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>POIVRONS TRICOLORES U FLT.3PCE</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="E6" s="8" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="F6" s="15" t="n">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CAROTTE PRIMEUR LITEE</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F7" s="15" t="n">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>OIGNON JAUNE HAUTS-DE-FRANCE</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E8" s="8" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F8" s="15" t="n">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>WRAPS NATURE OEP X6 350G</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E9" s="8" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="F9" s="15" t="n">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>THON ENT.HLE TOURN.PEC.U.X70G</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="E10" s="8" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="F10" s="15" t="n">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FILET SARDIN.TOM/BAS/OL.U 1/6</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="E11" s="8" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F11" s="15" t="n">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>POIS CHICHES U 530G</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="E12" s="8" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F12" s="15" t="n">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FILET MQX NATUREL SAUFIQ.1/4</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E13" s="8" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F13" s="15" t="n">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>HOUMOUS U 200G</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D14" s="8" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="E14" s="8" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="F14" s="15" t="n">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HARICOT VERT</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="E15" s="8" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="F15" s="15" t="n">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>POMME DE TERRE NOIRMOUTIER</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E16" s="8" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="F16" s="15" t="n">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2XPAVE BOEUF *** A GRIL.CHARAL</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" s="8" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="E17" s="8" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="F17" s="15" t="n">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>P/OC PINOT NOIR RG U SAV. 75CL</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="F18" s="15" t="n">
+        <v>45826</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DCHE CEDRE TONIF.USHUAIA 300ML</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="F19" s="15" t="n">
+        <v>45826</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DOUCHE GRENADE USHUAIA FL300ML</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="F20" s="15" t="n">
+        <v>45826</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SANDW.JAMB/CHEDDAR SODEBO 135G</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F21" s="15" t="n">
+        <v>45826</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>SCE PESTO ROSSO U 190G</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="F22" s="15" t="n">
+        <v>45828</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>SCE PESTO VERDE U 190G</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F23" s="15" t="n">
+        <v>45828</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MAYO.MOUTARD.DIJON SQUEZZ 235G</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="F24" s="15" t="n">
+        <v>45828</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>KETCHUP NATURE U FL.SOUPLE560G</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="8" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="F25" s="15" t="n">
+        <v>45828</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>AIGUILL.PLT BLANC PXM 350G</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="8" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="F26" s="15" t="n">
+        <v>45828</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CHIPS BRETS BACON GRILLE 125GR</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F27" s="15" t="n">
+        <v>45828</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>BIERE BLD 1664 5,5°BLE 12X25CL</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="8" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="F28" s="15" t="n">
+        <v>45828</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>EAU MIN.NAT.WATTWILLER PET1,5L</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="8" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E29" s="8" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F29" s="15" t="n">
+        <v>45830</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>BAGUET.U BIO BLE ILE DE FRANCE</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" s="8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E30" s="8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F30" s="15" t="n">
+        <v>45830</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SAC KRAFT CAISSE VENTE</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F31" s="15" t="n">
+        <v>45830</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ESSUIE-TOUT X3=9 PXM</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="8" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F32" s="15" t="n">
+        <v>45830</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>BOITE 20 OEUFS FRAIS</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="8" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="F33" s="15" t="n">
+        <v>45830</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>PUR JUS ORANGE S/PULPE U 90CL</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="8" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="F34" s="15" t="n">
+        <v>45830</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CHEVRE FRAIS PYRAMID.14%U 150G</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="8" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F35" s="15" t="n">
+        <v>45830</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>FR.PAST.AIL/FH 24% U POT150G</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="8" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="F36" s="15" t="n">
+        <v>45830</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>JBON SUP.LR U SAVEURS 4TR 160G</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="8" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="F37" s="15" t="n">
+        <v>45830</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>TUC ORIGINAL SALES LU PQ 100G</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" s="8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F38" s="15" t="n">
+        <v>45830</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>KIWI HAYWARD</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>4</v>
+      </c>
+      <c r="D39" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E39" s="8" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F39" s="15" t="n">
+        <v>45830</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>COTE ECHINE A/OS PXM SKIN X1</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="8" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="F40" s="15" t="n">
+        <v>45830</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>LIQ.VSL.FRAICH.PAIC 2X500 ML</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="8" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="F41" s="15" t="n">
+        <v>45830</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>BANANE CAVENDISH</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="8" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="E42" s="8" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="F42" s="15" t="n">
+        <v>45832</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>FILET POULET BLC S/PEAU VF 1KG</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="8" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="E43" s="8" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="F43" s="15" t="n">
+        <v>45832</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>EPINARD.BRANCHE.U BIO SAC.600G</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="8" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F44" s="15" t="n">
+        <v>45832</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>TORSADES BARILLA ETUI 500G</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F45" s="15" t="n">
+        <v>45832</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>FILET CABILLAUD PANE X2</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="8" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="F46" s="15" t="n">
+        <v>45832</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CITRON LIME</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="8" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F47" s="15" t="n">
+        <v>45834</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CHOU ROUGE NORMANDIE</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" s="8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F48" s="15" t="n">
+        <v>45834</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>CORIANDRE BARQUETTE 20G</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" s="8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F49" s="15" t="n">
+        <v>45834</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>AVOCAT HASS AFFINE</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" s="8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F50" s="15" t="n">
+        <v>45834</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>POIVRE NR MOULIN DUCROS 35G</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" s="8" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="F51" s="15" t="n">
+        <v>45834</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>TORTIL./MAIS OLD ELPAS.X8 335G</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>2</v>
+      </c>
+      <c r="D52" s="8" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="F52" s="15" t="n">
+        <v>45834</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>SAUCE PESTO GENOV.BARILLA 190G</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>2</v>
+      </c>
+      <c r="D53" s="8" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="F53" s="15" t="n">
+        <v>45834</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>AIL U FORMAT CLASSIQUE 55G</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" s="8" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="F54" s="15" t="n">
+        <v>45834</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>CREV.SAUVAG.DEC.CUITES U 125G</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" s="8" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="E55" s="8" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="F55" s="15" t="n">
+        <v>45834</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>FLT MERLU BLC MEUNIERE U 220G</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" s="8" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="E56" s="8" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="F56" s="15" t="n">
+        <v>45834</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>BOUQUET GABRIEL 12 TIGES HT50</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" s="8" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="F57" s="15" t="n">
+        <v>45835</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>MELON TYPE CHARENTAIS JAUNE</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" s="8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F58" s="15" t="n">
+        <v>45835</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>CONCOMBRE</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" s="8" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F59" s="15" t="n">
+        <v>45835</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>FR.PAST.AIL/FH 24%MG U 250G</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" s="8" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="F60" s="15" t="n">
+        <v>45835</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>TZATZIKI U 200G</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" s="8" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F61" s="15" t="n">
+        <v>45835</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>CHIPS ONDULEE FINE U ST 150G B.KRONENBOURG 4,2° BTE 50CL</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" s="8" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F62" s="15" t="n">
+        <v>45836</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>SAC KRAFT CAISSE VENTE</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" s="8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F63" s="15" t="n">
+        <v>45836</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>TRAITEUR LS UVCI WRAP TRIP PLET PANE BARB.180G</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" s="8" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="F64" s="15" t="n">
+        <v>45837</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>CREMERIE L.S. PARMIG.RAP.AOP LC 30% USAV.60G</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" s="8" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F65" s="15" t="n">
+        <v>45839</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>PETITS POIS EXTRA FIN U ST 1KG</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" s="8" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="F66" s="15" t="n">
+        <v>45839</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>FARFALLE QUA.SUPERIEURE ST 1KG</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" s="8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F67" s="15" t="n">
+        <v>45839</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>CHAIR A SAUCISSE S/COL.U 500G</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" s="8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E68" s="8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F68" s="15" t="n">
+        <v>45839</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>DET.FRT/CAFE/VIN RUBIGINE100ML</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" s="8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E69" s="8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F69" s="15" t="n">
+        <v>45839</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>DETACH.SANG OEUF RUBIGINE100ML</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" s="8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E70" s="8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F70" s="15" t="n">
+        <v>45839</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>TOMATE RONDE CHARNUES A FARCIR 0,288 kg</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" s="8" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E71" s="8" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F71" s="15" t="n">
+        <v>45839</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>NECTAR FRAMBOISE CASSIS U 75CL</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" s="8" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="E72" s="8" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="F72" s="15" t="n">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>PUR JUS MULTIVITAMINES U 90CL</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" s="8" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="E73" s="8" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="F73" s="15" t="n">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>CAFE GRAINS CLASSIQUE U 500G</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" s="8" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="E74" s="8" t="n">
+        <v>11.23</v>
+      </c>
+      <c r="F74" s="15" t="n">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>TUILLES AUX AMANDES U 100G</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" s="8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E75" s="8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F75" s="15" t="n">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>SABLE.SESAM.FRAMBOISE B.M.150G</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" s="8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E76" s="8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F76" s="15" t="n">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>FLT PLT BLANC U NA 870G ENVIR.</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" s="8" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="E77" s="8" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="F77" s="15" t="n">
+        <v>45844</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>BAC CG VANILLE U 500G</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" s="8" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E78" s="8" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="F78" s="15" t="n">
+        <v>45846</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>TOFU NATURE BIO BJORG 2X200G</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" s="8" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E79" s="8" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="F79" s="15" t="n">
+        <v>45846</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>MAIS DOUX GRAINS U BOITE 285G</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>5</v>
+      </c>
+      <c r="D80" s="8" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="E80" s="8" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F80" s="15" t="n">
+        <v>45846</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>AIL BLANC</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" s="8" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="E81" s="8" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F81" s="15" t="n">
+        <v>45846</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>PIMENT VERT</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" s="8" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E82" s="8" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F82" s="15" t="n">
+        <v>45846</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>POIVRONS TRICOLORES U FLT.3PCE</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>2</v>
+      </c>
+      <c r="D83" s="8" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E83" s="8" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="F83" s="15" t="n">
+        <v>45846</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ANANAS SWEET</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" s="8" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E84" s="8" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="F84" s="15" t="n">
+        <v>45846</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>OIGNON ROUGE TUBE 500G</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" s="8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E85" s="8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F85" s="15" t="n">
+        <v>45846</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ANETH BARQUETTE 20G</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" s="8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E86" s="8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F86" s="15" t="n">
+        <v>45846</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>CORIANDRE BARQUETTE 20G</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" s="8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="E87" s="8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F87" s="15" t="n">
+        <v>45846</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>TOMATE RONDE EN GRAPPE</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" s="8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="E88" s="8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F88" s="15" t="n">
+        <v>45846</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>GRA.PAD.AOP LTCRU 29%MG U 200G</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" s="8" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="E89" s="8" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="F89" s="15" t="n">
+        <v>45846</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>YRT.GREC 10% MAVROMMATIS 500G</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" s="8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E90" s="8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F90" s="15" t="n">
+        <v>45846</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>FETA GREC.AOP 24,2% U SAV.200G</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>2</v>
+      </c>
+      <c r="D91" s="8" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E91" s="8" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="F91" s="15" t="n">
+        <v>45846</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>LIQUIDES BORDEAUX SUPERIEUR ROUGE CHT V CHIANTI RG PICCINI 75CL</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" s="8" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="E92" s="8" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="F92" s="15" t="n">
+        <v>45846</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>BEAUTE SANTE PAP.TOIL.BLC 2 PLIS U 9=18RLX</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" s="8" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="E93" s="8" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="F93" s="15" t="n">
+        <v>45847</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>PRUNE BLACK SPLENDOR</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E94" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" s="15" t="n">
+        <v>45847</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>NECTARINE BLANCHE</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" s="8" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="E95" s="8" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="F95" s="15" t="n">
+        <v>45847</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>BANANE CAVENDISH</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" s="8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E96" s="8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F96" s="15" t="n">
+        <v>45847</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>CHARC.TRAIT.SAUC.SECS L</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" s="8" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="E97" s="8" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="F97" s="15" t="n">
+        <v>45847</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>RAVIOLI AUX FROMAGES U 300G</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" s="8" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="E98" s="8" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="F98" s="15" t="n">
+        <v>45847</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>BOITE 20 OEUFS FRAIS</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" s="8" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="E99" s="8" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="F99" s="15" t="n">
+        <v>45847</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>GOUDA TRANCHETTES 30%MG U 200G</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" s="8" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="E100" s="8" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="F100" s="15" t="n">
+        <v>45847</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>SARD.ENT.TOURN.PXM 1/6 3X120G</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" s="8" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="E101" s="8" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="F101" s="15" t="n">
+        <v>45847</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>SAUCE OLIVE BARILLA 400G</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>1</v>
+      </c>
+      <c r="D102" s="8" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="E102" s="8" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F102" s="15" t="n">
+        <v>45847</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>BROCOLIS U SACHET 900G</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D103" s="8" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="E103" s="8" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="F103" s="15" t="n">
+        <v>45847</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>EPINARDS EN BRANCHES U ST 1KG</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" s="8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E104" s="8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F104" s="15" t="n">
+        <v>45847</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>SAC KRAFT CAISSE VENTE</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>2</v>
+      </c>
+      <c r="D105" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E105" s="8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F105" s="15" t="n">
+        <v>45847</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>SH 15%MAT.GR.FAC.BOUCH.125G X2</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+      <c r="D106" s="8" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E106" s="8" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F106" s="15" t="n">
+        <v>45847</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>TOFU NATURE BIO BJORG 2X200G</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>1</v>
+      </c>
+      <c r="D107" s="8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E107" s="8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F107" s="15" t="n">
+        <v>45851</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>SUCRE POUDRE BLANC PXM 1KG</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>1</v>
+      </c>
+      <c r="D108" s="8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E108" s="8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F108" s="15" t="n">
+        <v>45851</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>MOUTARDE DE DIJON U BOC.370G</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" s="8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E109" s="8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F109" s="15" t="n">
+        <v>45851</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>THON NATUREL MRCX PBM BTE 1/4</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" s="8" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="E110" s="8" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="F110" s="15" t="n">
+        <v>45851</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>LEVURE CHIMIQUE ALSA STSX8 88G</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" s="8" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="E111" s="8" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F111" s="15" t="n">
+        <v>45851</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>FARINE DE BLE T55 PXM 1KG</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" s="8" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="E112" s="8" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F112" s="15" t="n">
+        <v>45851</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>DCHE CEDRE TONIF.USHUAIA 300ML</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" s="8" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="E113" s="8" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="F113" s="15" t="n">
+        <v>45851</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>GEL LAV.CUIS.CIT.U POMPE 300ML</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" s="8" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E114" s="8" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F114" s="15" t="n">
+        <v>45851</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>FILET POULET BLANC PXM 1KG</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" s="8" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="E115" s="8" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="F115" s="15" t="n">
+        <v>45851</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>PRUNE BLACK SPLENDOR</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" s="8" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="E116" s="8" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="F116" s="15" t="n">
+        <v>45851</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>NECTARINE JAUNE</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" s="8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="E117" s="8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="F117" s="15" t="n">
+        <v>45851</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>CAROTTE PRIMEUR</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
+      <c r="D118" s="8" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E118" s="8" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F118" s="15" t="n">
+        <v>45851</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>LAIT FRAIS PAST. DEMI ECR.U 1L</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>1</v>
+      </c>
+      <c r="D119" s="8" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="E119" s="8" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="F119" s="15" t="n">
+        <v>45851</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>POITRINE FUMEE U 10TR 140G</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>2</v>
+      </c>
+      <c r="D120" s="8" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="E120" s="8" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="F120" s="15" t="n">
+        <v>45851</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>FLT MERLU BLC MEUNIERE U 220G</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" s="8" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="E121" s="8" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="F121" s="15" t="n">
+        <v>45851</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>FLT LIMAND.NORD MEUNIER.U 200G</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" s="8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E122" s="8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F122" s="15" t="n">
+        <v>45851</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>ESSUIE-TOUT X3=9 PXM</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" s="8" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="E123" s="8" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="F123" s="15" t="n">
+        <v>45851</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>NOUILLE AUX OEUFS SUZI-WAN250G</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" s="8" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="E124" s="8" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="F124" s="15" t="n">
+        <v>45851</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>VINAIG.ALC.CRISTAL 8° PXM 1,5L</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" s="8" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E125" s="8" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F125" s="15" t="n">
+        <v>45851</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>CIBOULETTE BARQUETTE 20G</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" s="8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="E126" s="8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F126" s="15" t="n">
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>CORNICHON E.F U 37CL 185G</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>1</v>
+      </c>
+      <c r="D127" s="8" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="E127" s="8" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="F127" s="15" t="n">
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>THON NATUREL MRCX PXM BTE 1/4</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>2</v>
+      </c>
+      <c r="D128" s="8" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E128" s="8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F128" s="15" t="n">
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>MAR PX SENS.WILLIAMS ATO.200ML</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" s="8" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="E129" s="8" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="F129" s="15" t="n">
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>PILE U STANDARD LR03 X12</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" s="8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E130" s="8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F130" s="15" t="n">
+        <v>45855</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>MUESLI CROUSTIL.CHOC.NR.U 500G</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" s="8" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E131" s="8" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="F131" s="15" t="n">
+        <v>45855</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>SAUCE PESTO ROSSO BARILLA 200G</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" s="8" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E132" s="8" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="F132" s="15" t="n">
+        <v>45855</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>SAUCE PESTO GENOV.BARILLA 190G</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+      <c r="D133" s="8" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E133" s="8" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="F133" s="15" t="n">
+        <v>45855</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>MAYO.MOUTARD.DIJON SQUEZZ 235G</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+      <c r="D134" s="8" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="E134" s="8" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F134" s="15" t="n">
+        <v>45855</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>SAUCE SOJA U 150ML</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+      <c r="D135" s="8" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E135" s="8" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F135" s="15" t="n">
+        <v>45855</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>BANANE CAVENDISH FRANCE</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" s="8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E136" s="8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="F136" s="15" t="n">
+        <v>45856</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>FUSILLI N°48 RUMMO 500G</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" s="8" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="E137" s="8" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="F137" s="15" t="n">
+        <v>45856</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>FILET POULET BLANC PXM 1KG</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
+      <c r="D138" s="8" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="E138" s="8" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="F138" s="15" t="n">
+        <v>45856</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>BOITE 20 OEUFS FRAIS</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>1</v>
+      </c>
+      <c r="D139" s="8" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="E139" s="8" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="F139" s="15" t="n">
+        <v>45856</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>CUISSE POULET BLANC PXM 1KG</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+      <c r="D140" s="8" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="E140" s="8" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="F140" s="15" t="n">
+        <v>45858</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>BEURRE DE CACAHUETES U 350G</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>1</v>
+      </c>
+      <c r="D141" s="8" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="E141" s="8" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="F141" s="15" t="n">
+        <v>45858</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>TOFU NATURE BIO BJORG 2X200G</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D142" s="8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E142" s="8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F142" s="15" t="n">
+        <v>45858</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>GALETTES DE RIZ U 100G</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" s="8" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="E143" s="8" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="F143" s="15" t="n">
+        <v>45858</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>VERMICELES RIZ SUZI-WAN 250G</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D144" s="8" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="E144" s="8" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="F144" s="15" t="n">
+        <v>45858</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>SPAGHETTI PXM SACHET 1KG</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" s="8" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E145" s="8" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F145" s="15" t="n">
+        <v>45858</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>RIZ LONG BLANC PXM 1KG</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>1</v>
+      </c>
+      <c r="D146" s="8" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E146" s="8" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F146" s="15" t="n">
+        <v>45858</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>POIVRON ROUGE</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
+      <c r="D147" s="8" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E147" s="8" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F147" s="15" t="n">
+        <v>45858</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>PRUNE GOLDEN JAPAN</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>1</v>
+      </c>
+      <c r="D148" s="8" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="E148" s="8" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F148" s="15" t="n">
+        <v>45858</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>BANANE CAVENDISH BIO 5 FRUITS</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>1</v>
+      </c>
+      <c r="D149" s="8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E149" s="8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F149" s="15" t="n">
+        <v>45858</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>CONCOMBRE U BIO</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>1</v>
+      </c>
+      <c r="D150" s="8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E150" s="8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F150" s="15" t="n">
+        <v>45858</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>CAROTTE PRIMEUR</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>1</v>
+      </c>
+      <c r="D151" s="8" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E151" s="8" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F151" s="15" t="n">
+        <v>45858</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>AVOCAT HASS AFFINE</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>1</v>
+      </c>
+      <c r="D152" s="8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E152" s="8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F152" s="15" t="n">
+        <v>45858</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>PANE COLIN ALASK.PXM 200G TR.F</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>3</v>
+      </c>
+      <c r="D153" s="8" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E153" s="8" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F153" s="15" t="n">
+        <v>45858</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>BROCOLIS U SACHET 900G</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>1</v>
+      </c>
+      <c r="D154" s="8" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="E154" s="8" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="F154" s="15" t="n">
+        <v>45861</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>EPINARDS EN BRANCHES U ST 1KG</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>1</v>
+      </c>
+      <c r="D155" s="8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E155" s="8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F155" s="15" t="n">
+        <v>45861</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>COTE ECHINE PORC BQ.700G</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>1</v>
+      </c>
+      <c r="D156" s="8" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="E156" s="8" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="F156" s="15" t="n">
+        <v>45861</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>SARD.ENT.TOURN.PXM 1/6 3X120G</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>1</v>
+      </c>
+      <c r="D157" s="8" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="E157" s="8" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="F157" s="15" t="n">
+        <v>45861</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>THON NATUREL MRCX PXM BTE 1/4</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>2</v>
+      </c>
+      <c r="D158" s="8" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E158" s="8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F158" s="15" t="n">
+        <v>45861</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>MIETTE THON TOURNE SOL PXM 1/5</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>1</v>
+      </c>
+      <c r="D159" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E159" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F159" s="15" t="n">
+        <v>45861</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>SAC KRAFT CAISSE VENTE</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>1</v>
+      </c>
+      <c r="D160" s="8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E160" s="8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F160" s="15" t="n">
+        <v>45861</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>TOMATE RONDE EN GRAPPE</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>1</v>
+      </c>
+      <c r="D161" s="8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E161" s="8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F161" s="15" t="n">
+        <v>45861</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>PRUNE ROUGE OBILNAYA</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>1</v>
+      </c>
+      <c r="D162" s="8" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E162" s="8" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F162" s="15" t="n">
+        <v>45861</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>CAROTTE PRIME UR</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>1</v>
+      </c>
+      <c r="D163" s="8" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E163" s="8" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F163" s="15" t="n">
+        <v>45861</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>BANANE CAVENDISH</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>1</v>
+      </c>
+      <c r="D164" s="8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E164" s="8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F164" s="15" t="n">
+        <v>45861</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>BOUCH.LS.INDUST. SH 15%MAT.GR.FAC.BOUCH.125G X2</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>1</v>
+      </c>
+      <c r="D165" s="8" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E165" s="8" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F165" s="15" t="n">
+        <v>45862</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>SAUCE OLIVE BARILLA 400G</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>1</v>
+      </c>
+      <c r="D166" s="8" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="E166" s="8" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F166" s="15" t="n">
+        <v>45862</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>POMME BIO BARQUETTE 4 FRUITS</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>1</v>
+      </c>
+      <c r="D167" s="8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E167" s="8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F167" s="15" t="n">
+        <v>45862</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>GLAÇON APERITIF ALIMENT 1 KG</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>1</v>
+      </c>
+      <c r="D168" s="8" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="E168" s="8" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="F168" s="15" t="n">
+        <v>45864</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>CAFE GRAINS CLASSIQUE U 500G</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>2</v>
+      </c>
+      <c r="D169" s="8" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="E169" s="8" t="n">
+        <v>4.765</v>
+      </c>
+      <c r="F169" s="15" t="n">
+        <v>45864</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>OIGNON JAUNE HAUTS-DE-FRANCE</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>1</v>
+      </c>
+      <c r="D170" s="8" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E170" s="8" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F170" s="15" t="n">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>POMME DE TERRE CN991131</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>1</v>
+      </c>
+      <c r="D171" s="8" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E171" s="8" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="F171" s="15" t="n">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>CAROTTE PRIMEUR</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>1</v>
+      </c>
+      <c r="D172" s="8" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E172" s="8" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F172" s="15" t="n">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>BOUL.BOEUF CHARAL X12 BTE 360G</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>1</v>
+      </c>
+      <c r="D173" s="8" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="E173" s="8" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="F173" s="15" t="n">
+        <v>45866</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>POIVRONS TRICOLORES U FLT.3PCE</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>1</v>
+      </c>
+      <c r="D174" s="8" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E174" s="8" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="F174" s="15" t="n">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>OIGNON JAUNE HAUTS-DE-FRANCE</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>1</v>
+      </c>
+      <c r="D175" s="8" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E175" s="8" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F175" s="15" t="n">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>BANANE CAVENDISH</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>1</v>
+      </c>
+      <c r="D176" s="8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E176" s="8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F176" s="15" t="n">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>MELON TYPE CHARENTAIS JAUNE</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>1</v>
+      </c>
+      <c r="D177" s="8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E177" s="8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F177" s="15" t="n">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>BIERE BLONDE LA GOUDALE 75CL</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>1</v>
+      </c>
+      <c r="D178" s="8" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="E178" s="8" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="F178" s="15" t="n">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>TOFU NATURE BIO BJORG 2X200G</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>1</v>
+      </c>
+      <c r="D179" s="8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E179" s="8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F179" s="15" t="n">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>MUSLI CROUSTIL.CHOC.NR.U 500G</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>1</v>
+      </c>
+      <c r="D180" s="8" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E180" s="8" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="F180" s="15" t="n">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>NOUILLE AUX OEUFS SUZI-WAN250G</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>1</v>
+      </c>
+      <c r="D181" s="8" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="E181" s="8" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="F181" s="15" t="n">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>MAYO.MOUTARD.DIJON SQUEZZ 235G</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>1</v>
+      </c>
+      <c r="D182" s="8" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="E182" s="8" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F182" s="15" t="n">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>POMME DE TERRE GRENAILLE 500G</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>1</v>
+      </c>
+      <c r="D183" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E183" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F183" s="15" t="n">
+        <v>45871</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>EPINARDS EN BRANCHES ST 1KG</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>1</v>
+      </c>
+      <c r="D184" s="8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E184" s="8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F184" s="15" t="n">
+        <v>45871</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>SAUCISSE TOUL.FAC.CHARC.SOC.X2</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>3</v>
+      </c>
+      <c r="D185" s="8" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="E185" s="8" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="F185" s="15" t="n">
+        <v>45871</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>TOFU NATURE BIO BJORG 2X200G</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>1</v>
+      </c>
+      <c r="D186" s="8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E186" s="8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F186" s="15" t="n">
+        <v>45872</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>KINDER HAPPY HIPPO CACAO T5</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>1</v>
+      </c>
+      <c r="D187" s="8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E187" s="8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F187" s="15" t="n">
+        <v>45872</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>THON NATUREL MRCX PXM BTE 1/4</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>1</v>
+      </c>
+      <c r="D188" s="8" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="E188" s="8" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="F188" s="15" t="n">
+        <v>45872</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>CREMERIE L.S.</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>1</v>
+      </c>
+      <c r="D189" s="8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E189" s="8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F189" s="15" t="n">
+        <v>45872</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>CHARC.TRAIT.SAUC.SECS L</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>1</v>
+      </c>
+      <c r="D190" s="8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E190" s="8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F190" s="15" t="n">
+        <v>45872</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>FALAFEL HOT'N SPICY</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>1</v>
+      </c>
+      <c r="D191" s="8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E191" s="8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F191" s="15" t="n">
+        <v>45872</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>TABL.LV VAisselle TT EN 1 U X45</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>1</v>
+      </c>
+      <c r="D192" s="8" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="E192" s="8" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="F192" s="15" t="n">
+        <v>45872</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>CVT LUBER.BL DAUVERGNE 75CL</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>1</v>
+      </c>
+      <c r="D193" s="8" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="E193" s="8" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="F193" s="15" t="n">
+        <v>45874</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>FUSILLI N°48 RUMMO 500G</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>1</v>
+      </c>
+      <c r="D194" s="8" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="E194" s="8" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="F194" s="15" t="n">
+        <v>45874</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>BANANE CAVENDISH</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>1</v>
+      </c>
+      <c r="D195" s="8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E195" s="8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F195" s="15" t="n">
+        <v>45874</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>FILET POULET BLANC PXM 1KG</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>1</v>
+      </c>
+      <c r="D196" s="8" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="E196" s="8" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="F196" s="15" t="n">
+        <v>45874</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>DCHE CEDRE TONIF.USHUAIA 300ML GEL DOUCHE GRENADE U 250ML</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>1</v>
+      </c>
+      <c r="D197" s="8" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="E197" s="8" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="F197" s="15" t="n">
+        <v>45876</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>PRUNE ROUGE PRIMETIME</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>1</v>
+      </c>
+      <c r="D198" s="8" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="E198" s="8" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="F198" s="15" t="n">
+        <v>45876</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>POIVRON ROUGE</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>1</v>
+      </c>
+      <c r="D199" s="8" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E199" s="8" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F199" s="15" t="n">
+        <v>45876</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>BEURRE DE CACAHUETES U 350G</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>1</v>
+      </c>
+      <c r="D200" s="8" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="E200" s="8" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="F200" s="15" t="n">
+        <v>45876</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>OEufs pa cal.mixte U x12</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>1</v>
+      </c>
+      <c r="D201" s="8" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="E201" s="8" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="F201" s="15" t="n">
+        <v>45877</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Gouda tranches 30%mg U 200g</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>1</v>
+      </c>
+      <c r="D202" s="8" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="E202" s="8" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="F202" s="15" t="n">
+        <v>45877</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>From.blc nat.3%mg fil.u 900g</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>1</v>
+      </c>
+      <c r="D203" s="8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E203" s="8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F203" s="15" t="n">
+        <v>45877</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Filet poulet blanc pxm 1kg</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>1</v>
+      </c>
+      <c r="D204" s="8" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="E204" s="8" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="F204" s="15" t="n">
+        <v>45877</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Muesli croustil.choc.nr.u 500g</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>1</v>
+      </c>
+      <c r="D205" s="8" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E205" s="8" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="F205" s="15" t="n">
+        <v>45877</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Banane cavendish</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>1</v>
+      </c>
+      <c r="D206" s="8" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="E206" s="8" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="F206" s="15" t="n">
+        <v>45877</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Sac kraft caisse vente</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>1</v>
+      </c>
+      <c r="D207" s="8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E207" s="8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F207" s="15" t="n">
+        <v>45877</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>WRAP POULET CAESAR U 180G</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>1</v>
+      </c>
+      <c r="D208" s="8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="E208" s="8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="F208" s="15" t="n">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>SALADE MONTMARTRE SODEBO 320G</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>1</v>
+      </c>
+      <c r="D209" s="8" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="E209" s="8" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="F209" s="15" t="n">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>BROCOLIS U SACHET 900G</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>1</v>
+      </c>
+      <c r="D210" s="8" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="E210" s="8" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="F210" s="15" t="n">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>RAVIOLIS AU JAMBON CUIT U 300G</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>2</v>
+      </c>
+      <c r="D211" s="8" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="E211" s="8" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F211" s="15" t="n">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>CVT CDRV.SEGUR.RG JUST 75CL</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>1</v>
+      </c>
+      <c r="D212" s="8" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="E212" s="8" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="F212" s="15" t="n">
+        <v>45878</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>FR.PAST.AIL/FH 24% U POT150G</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>1</v>
+      </c>
+      <c r="D213" s="8" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="E213" s="8" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="F213" s="15" t="n">
+        <v>45879</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>JAMBON SUP.DD VPF U 6 TRANCHES</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>1</v>
+      </c>
+      <c r="D214" s="8" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="E214" s="8" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="F214" s="15" t="n">
+        <v>45879</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>CELSIUS PEACH VIBE SLK 35,5CL</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>1</v>
+      </c>
+      <c r="D215" s="8" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E215" s="8" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F215" s="15" t="n">
+        <v>45879</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>CELSIUS COSMIC VIBE SLK 35,5CL</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>1</v>
+      </c>
+      <c r="D216" s="8" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E216" s="8" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F216" s="15" t="n">
+        <v>45879</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>OEUFS PLEIN AIR CAL.MIX.U X20</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>1</v>
+      </c>
+      <c r="D217" s="8" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="E217" s="8" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="F217" s="15" t="n">
+        <v>45880</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>FROM.BLC NAT.3%MG FIL.U 900G</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>1</v>
+      </c>
+      <c r="D218" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E218" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F218" s="15" t="n">
+        <v>45880</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>GATEAU DE RIZ CARAMEL U 4X100G</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>1</v>
+      </c>
+      <c r="D219" s="8" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="E219" s="8" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F219" s="15" t="n">
+        <v>45880</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>COCKTAIL FRUITS ROUGES U 1KG</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>1</v>
+      </c>
+      <c r="D220" s="8" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="E220" s="8" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="F220" s="15" t="n">
+        <v>45880</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>PRUNE ROUGE PRIMETIME</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>1</v>
+      </c>
+      <c r="D221" s="8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E221" s="8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F221" s="15" t="n">
+        <v>45880</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>PATATE DOUCE</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>1</v>
+      </c>
+      <c r="D222" s="8" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="E222" s="8" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="F222" s="15" t="n">
+        <v>45880</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>THON NATUREL MRCX PXM BTE 1/4</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>3</v>
+      </c>
+      <c r="D223" s="8" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="E223" s="8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F223" s="15" t="n">
+        <v>45880</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>PANE COLIN ALASK.PXM 200G TR.F</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>2</v>
+      </c>
+      <c r="D224" s="8" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="E224" s="8" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F224" s="15" t="n">
+        <v>45880</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>DENT.BLCH.1 TEINT.COLGATE 75ML</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>1</v>
+      </c>
+      <c r="D225" s="8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E225" s="8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F225" s="15" t="n">
+        <v>45880</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>FALAFEL HOUMOUS À LA LIBANAISE SALADE MANHATTAN SODEBO 320G</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>2</v>
+      </c>
+      <c r="D226" s="8" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="E226" s="8" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="F226" s="15" t="n">
+        <v>45881</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>MUESLI CROUSTIL.CHOC.NR.U 500G</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>1</v>
+      </c>
+      <c r="D227" s="8" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E227" s="8" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="F227" s="15" t="n">
+        <v>45882</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>SAUCE OLIVE BARILLA 400G</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>1</v>
+      </c>
+      <c r="D228" s="8" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="E228" s="8" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F228" s="15" t="n">
+        <v>45882</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>VIANDE HACHEE 5%MAT.GR U 350G</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>1</v>
+      </c>
+      <c r="D229" s="8" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="E229" s="8" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="F229" s="15" t="n">
+        <v>45882</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>FROM.BLC NAT.3%MG FIL.U 900G</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>1</v>
+      </c>
+      <c r="D230" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E230" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F230" s="15" t="n">
+        <v>45882</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>SALADE MANHATTAN SODEBO 320G</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>1</v>
+      </c>
+      <c r="D231" s="8" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="E231" s="8" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="F231" s="15" t="n">
+        <v>45883</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>PAP.TOIL.BL.2PL.COMP.U 6=12RLX</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>1</v>
+      </c>
+      <c r="D232" s="8" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="E232" s="8" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="F232" s="15" t="n">
+        <v>45885</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>SAUCE TIKKA MASALA PATAKS 450G</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>1</v>
+      </c>
+      <c r="D233" s="8" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="E233" s="8" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="F233" s="15" t="n">
+        <v>45885</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>RIZ LONG BLANC PXM 1KG</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>1</v>
+      </c>
+      <c r="D234" s="8" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E234" s="8" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F234" s="15" t="n">
+        <v>45885</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>MAYONNAISE ALLEGEE U FL.455G</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>1</v>
+      </c>
+      <c r="D235" s="8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E235" s="8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F235" s="15" t="n">
+        <v>45885</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>THON NATUREL MRCX PXM BTE 1/4</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>6</v>
+      </c>
+      <c r="D236" s="8" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="E236" s="8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F236" s="15" t="n">
+        <v>45885</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>FILET POULET BLANC PXM 1KG</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>1</v>
+      </c>
+      <c r="D237" s="8" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="E237" s="8" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="F237" s="15" t="n">
+        <v>45885</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>POMME U BQ 4 FRUITS PROVENCE</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>1</v>
+      </c>
+      <c r="D238" s="8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E238" s="8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F238" s="15" t="n">
+        <v>45885</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>BANANE CAVENDISH</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>1</v>
+      </c>
+      <c r="D239" s="8" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E239" s="8" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F239" s="15" t="n">
+        <v>45885</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>FROM.BLC NAT.3%MG FIL.U 900G</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>1</v>
+      </c>
+      <c r="D240" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E240" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F240" s="15" t="n">
+        <v>45885</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>SAC KRAFT CAISSE VENTE</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>1</v>
+      </c>
+      <c r="D241" s="8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E241" s="8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F241" s="15" t="n">
+        <v>45885</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>SKYR NATURE YOPLAIT 850G0G</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>1</v>
+      </c>
+      <c r="D242" s="8" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E242" s="8" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="F242" s="15" t="n">
+        <v>45886</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>PRUNE ROUGE PRIMETIME</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>1</v>
+      </c>
+      <c r="D243" s="8" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E243" s="8" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F243" s="15" t="n">
+        <v>45886</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>PECHE JAUNE</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>1</v>
+      </c>
+      <c r="D244" s="8" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E244" s="8" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F244" s="15" t="n">
+        <v>45886</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>MYRTILLE BARQUETTE 125G</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>1</v>
+      </c>
+      <c r="D245" s="8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E245" s="8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F245" s="15" t="n">
+        <v>45886</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>FRAMBOISE DIAMOND J.BQ 125G</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>1</v>
+      </c>
+      <c r="D246" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E246" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F246" s="15" t="n">
+        <v>45886</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>CDR AOP RGE CRX ALL U 75CL</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>1</v>
+      </c>
+      <c r="D247" s="8" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="E247" s="8" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="F247" s="15" t="n">
+        <v>45886</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>BEURRE DE CACAHUETES U 350G</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>1</v>
+      </c>
+      <c r="D248" s="8" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="E248" s="8" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="F248" s="15" t="n">
+        <v>45888</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>ESSUIE-TOUT X3=9 PXM</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>1</v>
+      </c>
+      <c r="D249" s="8" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="E249" s="8" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="F249" s="15" t="n">
+        <v>45889</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>BOITE 20 OEUFS FRAIS</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>1</v>
+      </c>
+      <c r="D250" s="8" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="E250" s="8" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="F250" s="15" t="n">
+        <v>45889</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>LIQ.VAISSELLE CITRON 500ML PXM</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>1</v>
+      </c>
+      <c r="D251" s="8" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="E251" s="8" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F251" s="15" t="n">
+        <v>45889</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>GEL LAV.CUIS.CIT.U POMPE 300ML</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>1</v>
+      </c>
+      <c r="D252" s="8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E252" s="8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F252" s="15" t="n">
+        <v>45889</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>CARRES VAISSELLE COLORES U X5</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>1</v>
+      </c>
+      <c r="D253" s="8" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="E253" s="8" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F253" s="15" t="n">
+        <v>45889</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>EPONGE GRATT.MULTI USAGE U X3</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>1</v>
+      </c>
+      <c r="D254" s="8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E254" s="8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F254" s="15" t="n">
+        <v>45889</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>BANANE CAVENDISH</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>1</v>
+      </c>
+      <c r="D255" s="8" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="E255" s="8" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="F255" s="15" t="n">
+        <v>45889</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>MUESLI CROUSTIL.CHOC.NR.U 500G</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>1</v>
+      </c>
+      <c r="D256" s="8" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E256" s="8" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="F256" s="15" t="n">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>GOUDA TRANCHETTES 30%MG U 200G</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>1</v>
+      </c>
+      <c r="D257" s="8" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="E257" s="8" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="F257" s="15" t="n">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>FALAFEL</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>1</v>
+      </c>
+      <c r="D258" s="8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E258" s="8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F258" s="15" t="n">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>FROM.BLC NAT.3%MG FIL.U 900G</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>1</v>
+      </c>
+      <c r="D259" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E259" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F259" s="15" t="n">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>THON NATUREL MRCX PXM BTE 1/4</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
         <v>4</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="4"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D20" s="8"/>
+      <c r="D260" s="8" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="E260" s="8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F260" s="15" t="n">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>MELON TYPE CHARENTAIS JAUNE</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>1</v>
+      </c>
+      <c r="D261" s="8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="E261" s="8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="F261" s="15" t="n">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>BEURRE DE CACAHUETES U 350G</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>1</v>
+      </c>
+      <c r="D262" s="8" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="E262" s="8" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="F262" s="15" t="n">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>TOFU NATURE BIO BJORG 2X200G</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>1</v>
+      </c>
+      <c r="D263" s="8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E263" s="8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F263" s="15" t="n">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>CAROTTE</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>1</v>
+      </c>
+      <c r="D264" s="8" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E264" s="8" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F264" s="15" t="n">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>PRUNE ROUGE PRIMETIME</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>1</v>
+      </c>
+      <c r="D265" s="8" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E265" s="8" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F265" s="15" t="n">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>POIVRON ROUGE</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>1</v>
+      </c>
+      <c r="D266" s="8" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E266" s="8" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F266" s="15" t="n">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>VERMICELLES RIZ SUZI-WAN 250G GALETTES DE RIZ U 100G</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>2</v>
+      </c>
+      <c r="D267" s="8" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="E267" s="8" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="F267" s="15" t="n">
+        <v>45891</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>FILET POULET BLANC PXM 1KG</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>1</v>
+      </c>
+      <c r="D268" s="8" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="E268" s="8" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="F268" s="15" t="n">
+        <v>45892</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>PESTO ALLA GENOVESE FLORE.190G</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>1</v>
+      </c>
+      <c r="D269" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E269" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F269" s="15" t="n">
+        <v>45892</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>FUSILLI N°48 RUMMO 500G</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>1</v>
+      </c>
+      <c r="D270" s="8" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="E270" s="8" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="F270" s="15" t="n">
+        <v>45892</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>SAC KRAFT COURSES U DRIVE</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>1</v>
+      </c>
+      <c r="D271" s="8" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E271" s="8" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F271" s="15" t="n">
+        <v>45894</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>BANANE CAVENDISH</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>1</v>
+      </c>
+      <c r="D272" s="8" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="E272" s="8" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="F272" s="15" t="n">
+        <v>45894</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>PATATE DOUCE</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>1</v>
+      </c>
+      <c r="D273" s="8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E273" s="8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F273" s="15" t="n">
+        <v>45894</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>MUESLI CROUSTIL.CHOC.NR.U 500G</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>1</v>
+      </c>
+      <c r="D274" s="8" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E274" s="8" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="F274" s="15" t="n">
+        <v>45894</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>FROM.BLC NAT.3%MG FIL.U 900G</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>1</v>
+      </c>
+      <c r="D275" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E275" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F275" s="15" t="n">
+        <v>45894</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>PANE COLIN ALASK.PXM 200G TR.F</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>3</v>
+      </c>
+      <c r="D276" s="8" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="E276" s="8" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F276" s="15" t="n">
+        <v>45894</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>PRUNE ROUGE GRENADINE</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>1</v>
+      </c>
+      <c r="D277" s="8" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E277" s="8" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="F277" s="15" t="n">
+        <v>45896</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>BANANE CAVENDISH</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>1</v>
+      </c>
+      <c r="D278" s="8" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="E278" s="8" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="F278" s="15" t="n">
+        <v>45896</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>SALADE MANHATTAN SODEBO 320G</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>1</v>
+      </c>
+      <c r="D279" s="8" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="E279" s="8" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="F279" s="15" t="n">
+        <v>45896</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>CAPPELLETTI JAMBON CRU 250G</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>3</v>
+      </c>
+      <c r="D280" s="8" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="E280" s="8" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="F280" s="15" t="n">
+        <v>45896</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>THON NATUREL MRCX PXM BTE 1/4</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>3</v>
+      </c>
+      <c r="D281" s="8" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="E281" s="8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F281" s="15" t="n">
+        <v>45896</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>SAC KRAFT COURSES U DRIVE</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>1</v>
+      </c>
+      <c r="D282" s="8" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E282" s="8" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F282" s="15" t="n">
+        <v>45896</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>POMME DE TERRE NL.RECOLT.AGATA</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>1</v>
+      </c>
+      <c r="D283" s="8" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="E283" s="8" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="F283" s="15" t="n">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>CAISS.COTE ECH.A/OS COOPERL X6</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>1</v>
+      </c>
+      <c r="D284" s="8" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="E284" s="8" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="F284" s="15" t="n">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>FROM.BLC NAT.3%MG FIL.U 900G</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>1</v>
+      </c>
+      <c r="D285" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E285" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F285" s="15" t="n">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>BROCOLIS U SACHET 900G</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>1</v>
+      </c>
+      <c r="D286" s="8" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="E286" s="8" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="F286" s="15" t="n">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>EPINARDS EN BRANCHES U ST 1KG</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>1</v>
+      </c>
+      <c r="D287" s="8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E287" s="8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F287" s="15" t="n">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>BEUR.MOULE DX 82%P.BRETON 500G</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>1</v>
+      </c>
+      <c r="D288" s="8" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="E288" s="8" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="F288" s="15" t="n">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>L'OR ABSOLU GRAINS 1KG</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>1</v>
+      </c>
+      <c r="D289" s="8" t="n">
+        <v>19.96</v>
+      </c>
+      <c r="E289" s="8" t="n">
+        <v>19.96</v>
+      </c>
+      <c r="F289" s="15" t="n">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>DCH USHUAIA CEDRE TONIF.280ML</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>1</v>
+      </c>
+      <c r="D290" s="8" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="E290" s="8" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="F290" s="15" t="n">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>HOVE TERRA DELYSSA ZRP 0.75L</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>1</v>
+      </c>
+      <c r="D291" s="8" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="E291" s="8" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="F291" s="15" t="n">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>THON NATUREL MRCX PXM BTE 1/4</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>2</v>
+      </c>
+      <c r="D292" s="8" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E292" s="8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F292" s="15" t="n">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>RIZ LONG BLANC PXM 1KG</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>1</v>
+      </c>
+      <c r="D293" s="8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="E293" s="8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F293" s="15" t="n">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>COCKTAIL FRUITS ROUGES U 1KG</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>1</v>
+      </c>
+      <c r="D294" s="8" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="E294" s="8" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="F294" s="15" t="n">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>SALADE MANHATTAN SODEBO 320G</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>1</v>
+      </c>
+      <c r="D295" s="8" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="E295" s="8" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="F295" s="15" t="n">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>NOUILLES EN NIDS U SACHET 250G</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>1</v>
+      </c>
+      <c r="D296" s="8" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="E296" s="8" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F296" s="15" t="n">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>PESTO PIST/BASIL.BARILLA 190G</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>1</v>
+      </c>
+      <c r="D297" s="8" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="E297" s="8" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="F297" s="15" t="n">
+        <v>45902</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>MUESLI CROUSTIL.CHOC.NR.U 500G</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>1</v>
+      </c>
+      <c r="D298" s="8" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E298" s="8" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="F298" s="15" t="n">
+        <v>45902</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>CAPELLETTI JAMBON CRU 250G</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>1</v>
+      </c>
+      <c r="D299" s="8" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="E299" s="8" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="F299" s="15" t="n">
+        <v>45902</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>BANANE CAVENDISH BIO 5 FRUITS</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>1</v>
+      </c>
+      <c r="D300" s="8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E300" s="8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F300" s="15" t="n">
+        <v>45902</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>POP'S MANGUE PASSION 33CL REX</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>1</v>
+      </c>
+      <c r="D301" s="8" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E301" s="8" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F301" s="15" t="n">
+        <v>45904</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>CONCOMBRE</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>1</v>
+      </c>
+      <c r="D302" s="8" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="E302" s="8" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="F302" s="15" t="n">
+        <v>45904</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>CAROTTE</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>1</v>
+      </c>
+      <c r="D303" s="8" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E303" s="8" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F303" s="15" t="n">
+        <v>45904</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>CB SANS CONTACT VX</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>1</v>
+      </c>
+      <c r="D304" s="8" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="E304" s="8" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="F304" s="15" t="n">
+        <v>45904</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>FROM.BLC NAT.3%MG FIL.U 900G POP'S GRENADE 33CL REX</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>1</v>
+      </c>
+      <c r="D305" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E305" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F305" s="15" t="n">
+        <v>45904</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>POP'S GRENADE 33CL REX</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>1</v>
+      </c>
+      <c r="D306" s="8" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E306" s="8" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F306" s="15" t="n">
+        <v>45904</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>LAIT UHT 1/2EC.LAIT D'ICI BK1L</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>1</v>
+      </c>
+      <c r="D307" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E307" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F307" s="15" t="n">
+        <v>45904</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>PERSIL FRISE BARQUETTE 20G</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>1</v>
+      </c>
+      <c r="D308" s="8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="E308" s="8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F308" s="15" t="n">
+        <v>45904</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>BROCOLIS U SACHET 900G</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>1</v>
+      </c>
+      <c r="D309" s="8" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="E309" s="8" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="F309" s="15" t="n">
+        <v>45904</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>HARICOTS VERTS EXTRA FIN U 1KG</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>1</v>
+      </c>
+      <c r="D310" s="8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E310" s="8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F310" s="15" t="n">
+        <v>45904</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>POMME U BQ 4 FRUITS PROVENCE</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>1</v>
+      </c>
+      <c r="D311" s="8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E311" s="8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F311" s="15" t="n">
+        <v>45904</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>SAC KRAFT CAISSE VENTE</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>2</v>
+      </c>
+      <c r="D312" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E312" s="8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F312" s="15" t="n">
+        <v>45904</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>THON NATUREL MRCX PXM BTE 1/4</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>3</v>
+      </c>
+      <c r="D313" s="8" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="E313" s="8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F313" s="15" t="n">
+        <v>45904</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>BANANE CAVENDISH</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>1</v>
+      </c>
+      <c r="D314" s="8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="E314" s="8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="F314" s="15" t="n">
+        <v>45904</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>PATATE DOUCE</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>1</v>
+      </c>
+      <c r="D315" s="8" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="E315" s="8" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="F315" s="15" t="n">
+        <v>45904</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>FILET POULET BLANC PXM 1KG</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>1</v>
+      </c>
+      <c r="D316" s="8" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="E316" s="8" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="F316" s="15" t="n">
+        <v>45904</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>BROCOLIS U SACHET 900G</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>1</v>
+      </c>
+      <c r="D317" s="8" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="E317" s="8" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="F317" s="15" t="n">
+        <v>45906</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>GLAÇON APERITIF ALIMENT 1 KG</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>1</v>
+      </c>
+      <c r="D318" s="8" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="E318" s="8" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="F318" s="15" t="n">
+        <v>45906</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>FILET POULET BLANC PXM 1KG</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>1</v>
+      </c>
+      <c r="D319" s="8" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="E319" s="8" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="F319" s="15" t="n">
+        <v>45906</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>MOUTARDE ANCIENNE MAILLE 160G</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>1</v>
+      </c>
+      <c r="D320" s="8" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="E320" s="8" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="F320" s="15" t="n">
+        <v>45906</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>PROSECCO EXT-DRY COSTAROS 75CL</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>1</v>
+      </c>
+      <c r="D321" s="8" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="E321" s="8" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="F321" s="15" t="n">
+        <v>45906</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>PAP.TOIL.BL.2PL.COMP.U 6=12RLX</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>1</v>
+      </c>
+      <c r="D322" s="8" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="E322" s="8" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="F322" s="15" t="n">
+        <v>45910</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>MUESLI CROUSTIL.CHOC.NR.U 500G</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>1</v>
+      </c>
+      <c r="D323" s="8" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="E323" s="8" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="F323" s="15" t="n">
+        <v>45910</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>THON NATUREL MRCX PXM BTE 1/4</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>3</v>
+      </c>
+      <c r="D324" s="8" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="E324" s="8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F324" s="15" t="n">
+        <v>45910</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>FROM.BLC NAT.3%MG FIL.U 900G</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>1</v>
+      </c>
+      <c r="D325" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E325" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F325" s="15" t="n">
+        <v>45910</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>CAISS.COTE ECH.A/OS COOPERL X6</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>1</v>
+      </c>
+      <c r="D326" s="8" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="E326" s="8" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="F326" s="15" t="n">
+        <v>45910</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>POMME BARQUETTE 6 FRUITS</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>1</v>
+      </c>
+      <c r="D327" s="8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E327" s="8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F327" s="15" t="n">
+        <v>45910</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>PATATE DOUCE</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>1</v>
+      </c>
+      <c r="D328" s="8" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="E328" s="8" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="F328" s="15" t="n">
+        <v>45910</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>BANANE CAVENDISH</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>1</v>
+      </c>
+      <c r="D329" s="8" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="E329" s="8" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="F329" s="15" t="n">
+        <v>45910</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>SAC KRAFT CAISSE VENTE</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>2</v>
+      </c>
+      <c r="D330" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E330" s="8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F330" s="15" t="n">
+        <v>45910</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>MAYONNAISE ALLEGEE U FL.455G</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>1</v>
+      </c>
+      <c r="D331" s="8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E331" s="8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F331" s="15" t="n">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>OIGNON JAUNE HAUTS-DE-FRANCE</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>1</v>
+      </c>
+      <c r="D332" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E332" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F332" s="15" t="n">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>POMME DE TERRE NL.RECOLT.AGATA</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>1</v>
+      </c>
+      <c r="D333" s="8" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="E333" s="8" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="F333" s="15" t="n">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>CAROTTE</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>1</v>
+      </c>
+      <c r="D334" s="8" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E334" s="8" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F334" s="15" t="n">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>SPAGHETT.N°5 GROSSI RUMMO 500G</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>1</v>
+      </c>
+      <c r="D335" s="8" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E335" s="8" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F335" s="15" t="n">
+        <v>45916</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>SH 15%MAT.GR.FAC.BOUCH.125G X2</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>1</v>
+      </c>
+      <c r="D336" s="8" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="E336" s="8" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="F336" s="15" t="n">
+        <v>45916</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>SAUCE OLIVE BARILLA 400G</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>1</v>
+      </c>
+      <c r="D337" s="8" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="E337" s="8" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F337" s="15" t="n">
+        <v>45916</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>BANANE CAVENDISH FRANCE</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>1</v>
+      </c>
+      <c r="D338" s="8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E338" s="8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F338" s="15" t="n">
+        <v>45916</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>BDX RGE CH. LANDERAC U 75CL</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>1</v>
+      </c>
+      <c r="D339" s="8" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="E339" s="8" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="F339" s="15" t="n">
+        <v>45917</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>PIZZA JBN EMMEN.MOZZA.U 450G</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>2</v>
+      </c>
+      <c r="D340" s="8" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="E340" s="8" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="F340" s="15" t="n">
+        <v>45917</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>BEURRE DE CACAHUETES U 350G</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>1</v>
+      </c>
+      <c r="D341" s="8" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="E341" s="8" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="F341" s="15" t="n">
+        <v>45917</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>FROM.BLC NAT.3%MG FIL.U 900G</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>1</v>
+      </c>
+      <c r="D342" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E342" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F342" s="15" t="n">
+        <v>45917</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>OIGNON ROUGE TUBE 500G</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>1</v>
+      </c>
+      <c r="D343" s="8" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E343" s="8" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="F343" s="15" t="n">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>SAC KRAFT CAISSE VENTE</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>1</v>
+      </c>
+      <c r="D344" s="8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E344" s="8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F344" s="15" t="n">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>CAROTTE</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>1</v>
+      </c>
+      <c r="D345" s="8" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="E345" s="8" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F345" s="15" t="n">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>TORTIL./MAIS OLD ELPAS.X8 335G</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>1</v>
+      </c>
+      <c r="D346" s="8" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E346" s="8" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F346" s="15" t="n">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>SAUCE GUACAMOL.OLD EL PAS.320G</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>1</v>
+      </c>
+      <c r="D347" s="8" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="E347" s="8" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="F347" s="15" t="n">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>BIERE HEINEKEN BLE 65CL</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>1</v>
+      </c>
+      <c r="D348" s="8" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="E348" s="8" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="F348" s="15" t="n">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>PANE COLIN ALASK.PXM 200G TR.F</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>2</v>
+      </c>
+      <c r="D349" s="8" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="E349" s="8" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F349" s="15" t="n">
+        <v>45919</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>RAVIOLIS AU JAMBON CUIT U 300G</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>2</v>
+      </c>
+      <c r="D350" s="8" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="E350" s="8" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F350" s="15" t="n">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>SAUCE PESTO GENOV.BARILLA 190G</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>1</v>
+      </c>
+      <c r="D351" s="8" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E351" s="8" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="F351" s="15" t="n">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>SKYR NATURE YOPLAIT 850G0G</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>1</v>
+      </c>
+      <c r="D352" s="8" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E352" s="8" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="F352" s="15" t="n">
+        <v>45923</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>HOUMOUS P.CHICH.U SAVEURS 175G</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>1</v>
+      </c>
+      <c r="D353" s="8" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E353" s="8" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="F353" s="15" t="n">
+        <v>45923</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>FALAFEL</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>1</v>
+      </c>
+      <c r="D354" s="8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E354" s="8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F354" s="15" t="n">
+        <v>45923</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>SAUCISSE TOUL.FAC.CHARC.SOC.X2</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>3</v>
+      </c>
+      <c r="D355" s="8" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="E355" s="8" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="F355" s="15" t="n">
+        <v>45923</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>RIZ LONG BLANC PXM 1KG</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>1</v>
+      </c>
+      <c r="D356" s="8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="E356" s="8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F356" s="15" t="n">
+        <v>45923</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>BOITE 20 OEUFS FRAIS</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>1</v>
+      </c>
+      <c r="D357" s="8" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="E357" s="8" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="F357" s="15" t="n">
+        <v>45923</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>ESSUIE-TOUT X3=9 PXM</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>1</v>
+      </c>
+      <c r="D358" s="8" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="E358" s="8" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="F358" s="15" t="n">
+        <v>45923</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>GOUDA TRANCHETTES 30%MG U 200G</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>1</v>
+      </c>
+      <c r="D359" s="8" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="E359" s="8" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="F359" s="15" t="n">
+        <v>45923</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>LESS.DILUEE COUL.U 30LAV.1,5L</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>1</v>
+      </c>
+      <c r="D360" s="8" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="E360" s="8" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="F360" s="15" t="n">
+        <v>45923</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>LESSIVE WHITE MIR 27LAV.1,35L</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>1</v>
+      </c>
+      <c r="D361" s="8" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="E361" s="8" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="F361" s="15" t="n">
+        <v>45923</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>BANANE CAVENDISH</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>1</v>
+      </c>
+      <c r="D362" s="8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E362" s="8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F362" s="15" t="n">
+        <v>45923</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -858,7 +7708,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>